--- a/13thapril/excel and python2.xlsx
+++ b/13thapril/excel and python2.xlsx
@@ -1,128 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6072f0fa7345b62e/daily_python/13thapril/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0B595437532E875404547BAB2AFE494C59056BAC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC837A87-282C-43E5-A2EF-189FC4157616}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>december</t>
+  </si>
+  <si>
+    <t>Spending</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -312,118 +327,89 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" customWidth="1" style="2" min="3" max="3"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Months</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>january</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>april</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>june</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>august</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>september</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>october</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>november</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>december</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Spending</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>15691</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>5384</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>36870</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>300</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B3" s="0">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <f>SUM(B2:M2)</f>
-        <v/>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
